--- a/data/trans_orig/P14B24_2016_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B24_2016_2023-Edad-trans_orig.xlsx
@@ -755,19 +755,19 @@
         <v>8298</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3539</v>
+        <v>3913</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16931</v>
+        <v>17061</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02096665207452118</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008941413600414748</v>
+        <v>0.009888248275336801</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04278130372794992</v>
+        <v>0.04311003065424988</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -776,19 +776,19 @@
         <v>8298</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3522</v>
+        <v>3645</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16438</v>
+        <v>16926</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01017845219176516</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004320032853657037</v>
+        <v>0.004470752724449349</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02016334316020698</v>
+        <v>0.0207623068168365</v>
       </c>
     </row>
     <row r="5">
@@ -818,19 +818,19 @@
         <v>387457</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>378824</v>
+        <v>378694</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>392216</v>
+        <v>391842</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9790333479254788</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.95721869627205</v>
+        <v>0.95688996934575</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9910585863995853</v>
+        <v>0.9901117517246633</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>790</v>
@@ -839,19 +839,19 @@
         <v>806920</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>798780</v>
+        <v>798292</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>811696</v>
+        <v>811573</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9898215478082348</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9798366568397933</v>
+        <v>0.9792376931831633</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.995679967146343</v>
+        <v>0.9955292472755507</v>
       </c>
     </row>
     <row r="6">
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5802</v>
+        <v>6560</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003258444357617045</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.009825185001706946</v>
+        <v>0.01110925232373058</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -964,19 +964,19 @@
         <v>6066</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2737</v>
+        <v>2714</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12643</v>
+        <v>13002</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01076466067312467</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004856271124196903</v>
+        <v>0.004816359018842645</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02243483327744676</v>
+        <v>0.02307174350663631</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -985,19 +985,19 @@
         <v>7990</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3693</v>
+        <v>3808</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14994</v>
+        <v>15294</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006923898754416385</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00319995247035964</v>
+        <v>0.003299413508507729</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01299286207361164</v>
+        <v>0.01325273199373537</v>
       </c>
     </row>
     <row r="8">
@@ -1014,7 +1014,7 @@
         <v>588572</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>584694</v>
+        <v>583936</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>590496</v>
@@ -1023,7 +1023,7 @@
         <v>0.996741555642383</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9901748149982931</v>
+        <v>0.9888907476762664</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1035,19 +1035,19 @@
         <v>557478</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>550901</v>
+        <v>550542</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>560807</v>
+        <v>560830</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9892353393268754</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9775651667225533</v>
+        <v>0.9769282564933637</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9951437288758033</v>
+        <v>0.9951836409811573</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1138</v>
@@ -1056,19 +1056,19 @@
         <v>1146050</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1139046</v>
+        <v>1138746</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1150347</v>
+        <v>1150232</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9930761012455837</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9870071379263885</v>
+        <v>0.9867472680062644</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9968000475296404</v>
+        <v>0.9967005864914923</v>
       </c>
     </row>
     <row r="9">
@@ -1160,19 +1160,19 @@
         <v>5747</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1960</v>
+        <v>1984</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11589</v>
+        <v>13350</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008588681646405059</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00292875312476332</v>
+        <v>0.002965263176486378</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0173207251308178</v>
+        <v>0.01995253635546759</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -1181,19 +1181,19 @@
         <v>20454</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13317</v>
+        <v>12732</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31124</v>
+        <v>30662</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03092588665367978</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.020135343066207</v>
+        <v>0.01925039460269698</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04705860003727761</v>
+        <v>0.04636095929081098</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -1202,19 +1202,19 @@
         <v>26201</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17940</v>
+        <v>17602</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>37232</v>
+        <v>37659</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01969255989709277</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01348380017214859</v>
+        <v>0.01322998104133554</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02798402625286616</v>
+        <v>0.02830463700449425</v>
       </c>
     </row>
     <row r="11">
@@ -1231,19 +1231,19 @@
         <v>663350</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>657508</v>
+        <v>655747</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>667137</v>
+        <v>667113</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.991411318353595</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9826792748691822</v>
+        <v>0.9800474636445324</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9970712468752366</v>
+        <v>0.9970347368235136</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>644</v>
@@ -1252,19 +1252,19 @@
         <v>640932</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>630262</v>
+        <v>630724</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>648069</v>
+        <v>648654</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9690741133463202</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9529413999627224</v>
+        <v>0.953639040709189</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.979864656933793</v>
+        <v>0.9807496053973033</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1276</v>
@@ -1273,19 +1273,19 @@
         <v>1304282</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1293251</v>
+        <v>1292824</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1312543</v>
+        <v>1312881</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9803074401029073</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9720159737471338</v>
+        <v>0.9716953629955057</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9865161998278514</v>
+        <v>0.9867700189586645</v>
       </c>
     </row>
     <row r="12">
@@ -1377,19 +1377,19 @@
         <v>14435</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8314</v>
+        <v>8219</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23943</v>
+        <v>23837</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02234297031624192</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01286848994335146</v>
+        <v>0.0127217121833658</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03706142636894261</v>
+        <v>0.03689665109876226</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -1398,19 +1398,19 @@
         <v>32143</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21801</v>
+        <v>21589</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>45094</v>
+        <v>43570</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04952139237846746</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03358760089522219</v>
+        <v>0.0332615974597304</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0694744990616975</v>
+        <v>0.06712610388003794</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>44</v>
@@ -1419,19 +1419,19 @@
         <v>46578</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>34405</v>
+        <v>34158</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>62372</v>
+        <v>63272</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03596395961738631</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02656536238765643</v>
+        <v>0.02637456919770695</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0481593653704677</v>
+        <v>0.04885398874033261</v>
       </c>
     </row>
     <row r="14">
@@ -1448,19 +1448,19 @@
         <v>631613</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>622105</v>
+        <v>622211</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>637734</v>
+        <v>637829</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9776570296837581</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9629385736310573</v>
+        <v>0.9631033489012377</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9871315100566485</v>
+        <v>0.9872782878166342</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>572</v>
@@ -1469,19 +1469,19 @@
         <v>616934</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>603983</v>
+        <v>605507</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>627276</v>
+        <v>627488</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9504786076215326</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9305255009383023</v>
+        <v>0.932873896119962</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9664123991047778</v>
+        <v>0.9667384025402695</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1140</v>
@@ -1490,19 +1490,19 @@
         <v>1248547</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1232753</v>
+        <v>1231853</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1260720</v>
+        <v>1260967</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9640360403826137</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9518406346295324</v>
+        <v>0.9511460112596676</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9734346376123437</v>
+        <v>0.9736254308022931</v>
       </c>
     </row>
     <row r="15">
@@ -1594,19 +1594,19 @@
         <v>8625</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4165</v>
+        <v>3579</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16452</v>
+        <v>16082</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01804777690483395</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008715111136635721</v>
+        <v>0.007488904348777697</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0344248212466253</v>
+        <v>0.03365053994922589</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -1615,19 +1615,19 @@
         <v>26995</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18253</v>
+        <v>17853</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>40783</v>
+        <v>38952</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05433158213063415</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03673723866733759</v>
+        <v>0.0359323625988579</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08208347165276152</v>
+        <v>0.07839711656826616</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>32</v>
@@ -1636,19 +1636,19 @@
         <v>35620</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25181</v>
+        <v>24645</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>49830</v>
+        <v>49912</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03654201439499176</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0258331648874142</v>
+        <v>0.02528293571569263</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05112019703907474</v>
+        <v>0.05120372241799014</v>
       </c>
     </row>
     <row r="17">
@@ -1665,19 +1665,19 @@
         <v>469293</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>461466</v>
+        <v>461836</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>473753</v>
+        <v>474339</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9819522230951661</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9655751787533747</v>
+        <v>0.9663494600507743</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9912848888633643</v>
+        <v>0.9925110956512232</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>409</v>
@@ -1686,19 +1686,19 @@
         <v>469854</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>456066</v>
+        <v>457897</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>478596</v>
+        <v>478996</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9456684178693658</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9179165283472385</v>
+        <v>0.9216028834317338</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9632627613326624</v>
+        <v>0.9640676374011421</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>825</v>
@@ -1707,19 +1707,19 @@
         <v>939147</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>924937</v>
+        <v>924855</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>949586</v>
+        <v>950122</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9634579856050083</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9488798029609253</v>
+        <v>0.9487962775820098</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9741668351125858</v>
+        <v>0.9747170642843074</v>
       </c>
     </row>
     <row r="18">
@@ -1811,19 +1811,19 @@
         <v>2854</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8326</v>
+        <v>7899</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.008558182023489293</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002665998603716304</v>
+        <v>0.002671118474248094</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02497067640219021</v>
+        <v>0.02369116228935953</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>23</v>
@@ -1832,19 +1832,19 @@
         <v>24153</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15666</v>
+        <v>15930</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35384</v>
+        <v>35691</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06393661511821523</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04147131793506281</v>
+        <v>0.04216981105195333</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09366760376106839</v>
+        <v>0.0944794500056033</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>26</v>
@@ -1853,19 +1853,19 @@
         <v>27006</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18045</v>
+        <v>17347</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>39610</v>
+        <v>38023</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03797346140614117</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02537313278722577</v>
+        <v>0.02439174656471312</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05569541381907559</v>
+        <v>0.05346366374542164</v>
       </c>
     </row>
     <row r="20">
@@ -1882,19 +1882,19 @@
         <v>330575</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>325103</v>
+        <v>325530</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>332540</v>
+        <v>332538</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9914418179765107</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9750293235978097</v>
+        <v>0.9763088377106405</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9973340013962837</v>
+        <v>0.9973288815257519</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>331</v>
@@ -1903,19 +1903,19 @@
         <v>353609</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>342378</v>
+        <v>342071</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>362096</v>
+        <v>361832</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9360633848817848</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9063323962389317</v>
+        <v>0.9055205499943968</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9585286820649371</v>
+        <v>0.9578301889480467</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>652</v>
@@ -1924,19 +1924,19 @@
         <v>684185</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>671581</v>
+        <v>673168</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>693146</v>
+        <v>693844</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9620265385938588</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9443045861809245</v>
+        <v>0.9465363362545783</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9746268672127744</v>
+        <v>0.9756082534352868</v>
       </c>
     </row>
     <row r="21">
@@ -2028,19 +2028,19 @@
         <v>3535</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>916</v>
+        <v>893</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8922</v>
+        <v>8157</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01375489474379713</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003565790102766199</v>
+        <v>0.003473191376125438</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03471737672777608</v>
+        <v>0.03174111751569415</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>22</v>
@@ -2049,19 +2049,19 @@
         <v>28598</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>19358</v>
+        <v>18408</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>41108</v>
+        <v>41582</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07146589189017072</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04837532214786164</v>
+        <v>0.04599951036482193</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1027258831484383</v>
+        <v>0.103911876116176</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>26</v>
@@ -2070,19 +2070,19 @@
         <v>32133</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>21696</v>
+        <v>20626</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>45303</v>
+        <v>45142</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04889687838994926</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03301382639207372</v>
+        <v>0.03138598040083188</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06893753896971784</v>
+        <v>0.06869146233810301</v>
       </c>
     </row>
     <row r="23">
@@ -2099,19 +2099,19 @@
         <v>253463</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>248076</v>
+        <v>248841</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>256082</v>
+        <v>256105</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9862451052562029</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.965282623272224</v>
+        <v>0.9682588824843028</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9964342098972337</v>
+        <v>0.9965268086238745</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>279</v>
@@ -2120,19 +2120,19 @@
         <v>371571</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>359061</v>
+        <v>358587</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>380811</v>
+        <v>381761</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9285341081098293</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8972741168515618</v>
+        <v>0.8960881238838241</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9516246778521383</v>
+        <v>0.9540004896351781</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>577</v>
@@ -2141,19 +2141,19 @@
         <v>625034</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>611864</v>
+        <v>612025</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>635471</v>
+        <v>636541</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9511031216100507</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9310624610302799</v>
+        <v>0.9313085376618967</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9669861736079262</v>
+        <v>0.968614019599168</v>
       </c>
     </row>
     <row r="24">
@@ -2245,19 +2245,19 @@
         <v>37119</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>26988</v>
+        <v>26179</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>50787</v>
+        <v>50011</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01093851061833929</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.007952965379697339</v>
+        <v>0.007714488658332254</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01496627704010875</v>
+        <v>0.01473740200981383</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>133</v>
@@ -2266,19 +2266,19 @@
         <v>146707</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>122285</v>
+        <v>125085</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>174112</v>
+        <v>171797</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0413895551865695</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03449938085700111</v>
+        <v>0.03528950579813325</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04912126268559613</v>
+        <v>0.04846791593200658</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>170</v>
@@ -2287,19 +2287,19 @@
         <v>183826</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>158506</v>
+        <v>155261</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>212038</v>
+        <v>212102</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02649560900372193</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02284612833615389</v>
+        <v>0.02237838292935024</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03056191710510126</v>
+        <v>0.03057112891578916</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>3356330</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3342662</v>
+        <v>3343438</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3366461</v>
+        <v>3367270</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9890614893816607</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9850337229598913</v>
+        <v>0.9852625979901863</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9920470346203027</v>
+        <v>0.9922855113416679</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3205</v>
@@ -2337,19 +2337,19 @@
         <v>3397835</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3370430</v>
+        <v>3372745</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3422257</v>
+        <v>3419457</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9586104448134305</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.950878737314404</v>
+        <v>0.9515320840679935</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9655006191429989</v>
+        <v>0.9647104942018668</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6398</v>
@@ -2358,19 +2358,19 @@
         <v>6754165</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6725953</v>
+        <v>6725889</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6779485</v>
+        <v>6782730</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9735043909962781</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9694380828948986</v>
+        <v>0.9694288710842109</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9771538716638459</v>
+        <v>0.9776216170706498</v>
       </c>
     </row>
     <row r="27">
@@ -2705,19 +2705,19 @@
         <v>8600</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2513</v>
+        <v>2682</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22579</v>
+        <v>22289</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02108977148445831</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00616289611545525</v>
+        <v>0.006577649323941415</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05536850380673855</v>
+        <v>0.05465673235463196</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -2726,19 +2726,19 @@
         <v>12887</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5188</v>
+        <v>5433</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25427</v>
+        <v>26103</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03554866640308311</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01431249574051207</v>
+        <v>0.0149863235199498</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07014147375408845</v>
+        <v>0.07200606956032696</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -2747,19 +2747,19 @@
         <v>21487</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10947</v>
+        <v>10738</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37709</v>
+        <v>37645</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.02789424801877079</v>
+        <v>0.02789424801877078</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01421097053882642</v>
+        <v>0.01394050037705504</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04895360939831495</v>
+        <v>0.04887027600348895</v>
       </c>
     </row>
     <row r="5">
@@ -2776,19 +2776,19 @@
         <v>399193</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>385214</v>
+        <v>385504</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>405280</v>
+        <v>405111</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9789102285155419</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9446314961932623</v>
+        <v>0.9453432676453682</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9938371038845447</v>
+        <v>0.9934223506760587</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>200</v>
@@ -2797,19 +2797,19 @@
         <v>349625</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>337085</v>
+        <v>336409</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>357324</v>
+        <v>357079</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9644513335969168</v>
+        <v>0.9644513335969169</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9298585262459116</v>
+        <v>0.9279939304396728</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.985687504259488</v>
+        <v>0.9850136764800501</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>368</v>
@@ -2818,19 +2818,19 @@
         <v>748818</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>732596</v>
+        <v>732660</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>759358</v>
+        <v>759567</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9721057519812293</v>
+        <v>0.9721057519812292</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9510463906016848</v>
+        <v>0.951129723996511</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9857890294611735</v>
+        <v>0.9860594996229449</v>
       </c>
     </row>
     <row r="6">
@@ -2922,19 +2922,19 @@
         <v>5789</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14739</v>
+        <v>13862</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01213872522208237</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003463801038968856</v>
+        <v>0.003452982415579366</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03090565930145738</v>
+        <v>0.0290670496646685</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -2943,19 +2943,19 @@
         <v>19578</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11500</v>
+        <v>11663</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30554</v>
+        <v>31171</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.03907156591195302</v>
+        <v>0.03907156591195301</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02294995709805894</v>
+        <v>0.02327462118007279</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06097539362901188</v>
+        <v>0.06220696588928213</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -2964,19 +2964,19 @@
         <v>25367</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16134</v>
+        <v>16181</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>38141</v>
+        <v>38916</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02593827401868765</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01649714715819765</v>
+        <v>0.01654557174596925</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0390002783106249</v>
+        <v>0.03979282005858528</v>
       </c>
     </row>
     <row r="8">
@@ -2993,19 +2993,19 @@
         <v>471101</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>462151</v>
+        <v>463028</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>475238</v>
+        <v>475243</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9878612747779175</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9690943406985426</v>
+        <v>0.9709329503353317</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9965361989610311</v>
+        <v>0.9965470175844208</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>443</v>
@@ -3014,19 +3014,19 @@
         <v>481505</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>470529</v>
+        <v>469912</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>489583</v>
+        <v>489420</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9609284340880468</v>
+        <v>0.960928434088047</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9390246063709881</v>
+        <v>0.9377930341107179</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9770500429019411</v>
+        <v>0.9767253788199272</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>741</v>
@@ -3035,19 +3035,19 @@
         <v>952606</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>939832</v>
+        <v>939057</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>961839</v>
+        <v>961792</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9740617259813122</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9609997216893752</v>
+        <v>0.9602071799414147</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9835028528418023</v>
+        <v>0.9834544282540306</v>
       </c>
     </row>
     <row r="9">
@@ -3139,19 +3139,19 @@
         <v>18877</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10966</v>
+        <v>11014</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31442</v>
+        <v>31492</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0304638929947184</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01769635723285275</v>
+        <v>0.0177747175126801</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05074128383442262</v>
+        <v>0.05082233057323775</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>31</v>
@@ -3160,19 +3160,19 @@
         <v>22644</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15759</v>
+        <v>15817</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32042</v>
+        <v>32189</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03648044397327101</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02538767913811974</v>
+        <v>0.02548240084311207</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05162123053149806</v>
+        <v>0.05185735902867292</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>47</v>
@@ -3181,19 +3181,19 @@
         <v>41521</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30983</v>
+        <v>31012</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>56296</v>
+        <v>56476</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03347474803990595</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02497846508216495</v>
+        <v>0.0250018214794649</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04538654127480226</v>
+        <v>0.04553132009404313</v>
       </c>
     </row>
     <row r="11">
@@ -3210,19 +3210,19 @@
         <v>600779</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>588214</v>
+        <v>588164</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>608690</v>
+        <v>608642</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9695361070052816</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9492587161655774</v>
+        <v>0.949177669426762</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9823036427671473</v>
+        <v>0.9822252824873199</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>813</v>
@@ -3231,19 +3231,19 @@
         <v>598076</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>588678</v>
+        <v>588531</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>604961</v>
+        <v>604903</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9635195560267289</v>
+        <v>0.9635195560267291</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9483787694685019</v>
+        <v>0.9481426409713272</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9746123208618803</v>
+        <v>0.9745175991568878</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1342</v>
@@ -3252,19 +3252,19 @@
         <v>1198855</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1184080</v>
+        <v>1183900</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1209393</v>
+        <v>1209364</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.966525251960094</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9546134587251974</v>
+        <v>0.9544686799059567</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9750215349178352</v>
+        <v>0.9749981785205352</v>
       </c>
     </row>
     <row r="12">
@@ -3356,19 +3356,19 @@
         <v>23007</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14973</v>
+        <v>14341</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35160</v>
+        <v>35478</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03289076939748595</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02140554729737162</v>
+        <v>0.02050230956576683</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05026559364050886</v>
+        <v>0.0507195914562856</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>77</v>
@@ -3377,19 +3377,19 @@
         <v>51524</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41696</v>
+        <v>41632</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>62905</v>
+        <v>64105</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07002453536469644</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05666716053657271</v>
+        <v>0.05658084760694186</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08549165037301545</v>
+        <v>0.08712164229811568</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>98</v>
@@ -3398,19 +3398,19 @@
         <v>74531</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>61725</v>
+        <v>60656</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>91029</v>
+        <v>90835</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05192741424217558</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0430048536734715</v>
+        <v>0.04226039330300718</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06342180103202778</v>
+        <v>0.063286808035435</v>
       </c>
     </row>
     <row r="14">
@@ -3427,19 +3427,19 @@
         <v>676483</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>664330</v>
+        <v>664012</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>684517</v>
+        <v>685149</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.967109230602514</v>
+        <v>0.9671092306025142</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9497344063594915</v>
+        <v>0.9492804085437146</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9785944527026289</v>
+        <v>0.9794976904342333</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1062</v>
@@ -3448,19 +3448,19 @@
         <v>684281</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>672900</v>
+        <v>671700</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>694109</v>
+        <v>694173</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9299754646353035</v>
+        <v>0.9299754646353036</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9145083496269847</v>
+        <v>0.9128783577018841</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9433328394634273</v>
+        <v>0.9434191523930581</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1705</v>
@@ -3469,19 +3469,19 @@
         <v>1360764</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1344266</v>
+        <v>1344460</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1373570</v>
+        <v>1374639</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9480725857578243</v>
+        <v>0.9480725857578244</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9365781989679721</v>
+        <v>0.936713191964565</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9569951463265285</v>
+        <v>0.9577396066969928</v>
       </c>
     </row>
     <row r="15">
@@ -3573,19 +3573,19 @@
         <v>23074</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15227</v>
+        <v>15411</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32796</v>
+        <v>33953</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03798677561637134</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02506701478288706</v>
+        <v>0.02537062405544934</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05399056603558099</v>
+        <v>0.05589574203304464</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>87</v>
@@ -3594,19 +3594,19 @@
         <v>54662</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>43523</v>
+        <v>43816</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>66040</v>
+        <v>66675</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09009318168005925</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07173418775538454</v>
+        <v>0.07221687593531743</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1088471876943441</v>
+        <v>0.1098931451852978</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>113</v>
@@ -3615,19 +3615,19 @@
         <v>77736</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>64316</v>
+        <v>64723</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>95002</v>
+        <v>92831</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06402468905369332</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05297205904161287</v>
+        <v>0.05330711102642628</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07824503702859141</v>
+        <v>0.07645716422639591</v>
       </c>
     </row>
     <row r="17">
@@ -3644,19 +3644,19 @@
         <v>584361</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>574639</v>
+        <v>573482</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>592208</v>
+        <v>592024</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9620132243836287</v>
+        <v>0.9620132243836288</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9460094339644193</v>
+        <v>0.944104257966956</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9749329852171131</v>
+        <v>0.9746293759445509</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>912</v>
@@ -3665,19 +3665,19 @@
         <v>552061</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>540683</v>
+        <v>540048</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>563200</v>
+        <v>562907</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9099068183199408</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8911528123056559</v>
+        <v>0.8901068548147022</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9282658122446154</v>
+        <v>0.9277831240646827</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1547</v>
@@ -3686,19 +3686,19 @@
         <v>1136422</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1119156</v>
+        <v>1121327</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1149842</v>
+        <v>1149435</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9359753109463067</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9217549629714086</v>
+        <v>0.923542835773604</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9470279409583868</v>
+        <v>0.9466928889735737</v>
       </c>
     </row>
     <row r="18">
@@ -3790,19 +3790,19 @@
         <v>7166</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3610</v>
+        <v>3750</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12721</v>
+        <v>12303</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01764088810901867</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008885992105307345</v>
+        <v>0.009232018488576833</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03131711627808471</v>
+        <v>0.03028839351235671</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>58</v>
@@ -3811,19 +3811,19 @@
         <v>33467</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>26324</v>
+        <v>25880</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>43649</v>
+        <v>42322</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.07620624555515741</v>
+        <v>0.0762062455551574</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05994152228919542</v>
+        <v>0.0589305484193578</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09939143260494318</v>
+        <v>0.09636978057563032</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>69</v>
@@ -3832,19 +3832,19 @@
         <v>40633</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>31989</v>
+        <v>31951</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>51119</v>
+        <v>51737</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.04806507210904363</v>
+        <v>0.04806507210904364</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03784038311631252</v>
+        <v>0.03779492228104189</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06046861177013163</v>
+        <v>0.06120015442125171</v>
       </c>
     </row>
     <row r="20">
@@ -3861,19 +3861,19 @@
         <v>399045</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>393490</v>
+        <v>393908</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>402601</v>
+        <v>402461</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9823591118909815</v>
+        <v>0.9823591118909812</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9686828837219154</v>
+        <v>0.9697116064876435</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9911140078946927</v>
+        <v>0.9907679815114232</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>769</v>
@@ -3882,19 +3882,19 @@
         <v>405699</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>395517</v>
+        <v>396844</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>412842</v>
+        <v>413286</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9237937544448427</v>
+        <v>0.9237937544448426</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9006085673950568</v>
+        <v>0.9036302194243697</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9400584777108045</v>
+        <v>0.9410694515806425</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1327</v>
@@ -3903,19 +3903,19 @@
         <v>804745</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>794259</v>
+        <v>793641</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>813389</v>
+        <v>813427</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9519349278909564</v>
+        <v>0.9519349278909565</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9395313882298684</v>
+        <v>0.9387998455787481</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9621596168836872</v>
+        <v>0.9622050777189581</v>
       </c>
     </row>
     <row r="21">
@@ -4007,19 +4007,19 @@
         <v>10514</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5994</v>
+        <v>5454</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17926</v>
+        <v>16471</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03389425537743734</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01932368649007449</v>
+        <v>0.01758079901827099</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05778975551893516</v>
+        <v>0.05309688396441805</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>60</v>
@@ -4028,19 +4028,19 @@
         <v>34997</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>26347</v>
+        <v>26535</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>44347</v>
+        <v>44195</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.07543799365009284</v>
+        <v>0.07543799365009285</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05679209368999098</v>
+        <v>0.05719748483999185</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09559189463733486</v>
+        <v>0.09526301681714673</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>75</v>
@@ -4049,19 +4049,19 @@
         <v>45511</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>36288</v>
+        <v>35704</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>56407</v>
+        <v>56883</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05879095533183316</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04687691905904115</v>
+        <v>0.04612247193576553</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07286535460990035</v>
+        <v>0.07348114286296517</v>
       </c>
     </row>
     <row r="23">
@@ -4078,19 +4078,19 @@
         <v>299684</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>292272</v>
+        <v>293727</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>304204</v>
+        <v>304744</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9661057446225625</v>
+        <v>0.9661057446225626</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9422102444810648</v>
+        <v>0.946903116035582</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9806763135099256</v>
+        <v>0.9824192009817291</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>820</v>
@@ -4099,19 +4099,19 @@
         <v>428924</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>419574</v>
+        <v>419726</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>437574</v>
+        <v>437386</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9245620063499072</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9044081053626649</v>
+        <v>0.9047369831828528</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9432079063100089</v>
+        <v>0.9428025151600079</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1263</v>
@@ -4120,19 +4120,19 @@
         <v>728609</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>717713</v>
+        <v>717237</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>737832</v>
+        <v>738416</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9412090446681669</v>
+        <v>0.9412090446681667</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9271346453900995</v>
+        <v>0.9265188571370345</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9531230809409588</v>
+        <v>0.9538775280642344</v>
       </c>
     </row>
     <row r="24">
@@ -4224,19 +4224,19 @@
         <v>97027</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>76687</v>
+        <v>79309</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>119760</v>
+        <v>120173</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.02750463105231373</v>
+        <v>0.02750463105231374</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02173864881661075</v>
+        <v>0.02248195955556345</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03394857835998617</v>
+        <v>0.03406583205990691</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>337</v>
@@ -4245,19 +4245,19 @@
         <v>229760</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>203042</v>
+        <v>205419</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>255618</v>
+        <v>255050</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.06159888300802914</v>
+        <v>0.06159888300802915</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05443581681347748</v>
+        <v>0.05507327230463876</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06853150666453788</v>
+        <v>0.06837921980193296</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>434</v>
@@ -4266,19 +4266,19 @@
         <v>326787</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>298305</v>
+        <v>293209</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>362499</v>
+        <v>358311</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04502682629710286</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04110240475625365</v>
+        <v>0.0404003055875718</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04994751432828702</v>
+        <v>0.04937048627134535</v>
       </c>
     </row>
     <row r="26">
@@ -4295,19 +4295,19 @@
         <v>3430648</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3407915</v>
+        <v>3407502</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3450988</v>
+        <v>3448366</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9724953689476861</v>
+        <v>0.9724953689476863</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9660514216400138</v>
+        <v>0.965934167940093</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.978261351183389</v>
+        <v>0.9775180404444366</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5019</v>
@@ -4316,19 +4316,19 @@
         <v>3500170</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3474312</v>
+        <v>3474880</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3526888</v>
+        <v>3524511</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9384011169919707</v>
+        <v>0.9384011169919708</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9314684933354619</v>
+        <v>0.9316207801980664</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9455641831865224</v>
+        <v>0.9449267276953608</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8293</v>
@@ -4337,19 +4337,19 @@
         <v>6930818</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6895106</v>
+        <v>6899294</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6959300</v>
+        <v>6964396</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9549731737028971</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.950052485671713</v>
+        <v>0.9506295137286542</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9588975952437462</v>
+        <v>0.959599694412428</v>
       </c>
     </row>
     <row r="27">
